--- a/Jogos_do_Dia/2023-05-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.46</v>
+        <v>2.91</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -663,10 +663,10 @@
         <v>2.95</v>
       </c>
       <c r="N2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="P2" t="n">
         <v>1.45</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -859,80 +859,80 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>3.31</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>6.57</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>3.69</v>
       </c>
       <c r="N4" t="n">
-        <v>2.43</v>
+        <v>1.77</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>1.94</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>3.09</v>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="S4" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="T4" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="V4" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="W4" t="n">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>1.07</v>
+        <v>0.65</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="Z4" t="n">
         <v>1.22</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -974,104 +974,104 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>OFK Pirin</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>7.4</v>
+        <v>6.57</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
-        <v>2.86</v>
+        <v>2.63</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="O5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AB5" t="n">
         <v>1.63</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AE5" t="n">
         <v>1.3</v>
       </c>
-      <c r="V5" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="6">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1123,10 +1123,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1208,76 +1208,76 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>OFK Pirin</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.46</v>
+        <v>3.83</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>3.69</v>
+        <v>2.86</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.09</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="T7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.3</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="X7" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1323,100 +1323,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M8" t="n">
         <v>3.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="AD8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>1.9</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>2.23</v>
-      </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="9">
@@ -1438,22 +1438,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Gefle</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1468,10 +1468,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
@@ -1480,34 +1480,34 @@
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="U9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W9" t="n">
         <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AB9" t="n">
         <v>1.73</v>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1586,67 +1586,67 @@
         <v>1.8</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="Y10" t="n">
         <v>1.67</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1668,85 +1668,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>Örebro</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="X11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AA11" t="n">
         <v>2.86</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AC11" t="n">
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AE11" t="n">
         <v>1.22</v>
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.11</v>
@@ -1816,7 +1816,7 @@
         <v>2.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
         <v>1.59</v>
@@ -1855,28 +1855,28 @@
         <v>2.91</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="13">
@@ -1997,7 +1997,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>USA MLS</t>
+          <t>Canada Canadian Premier League</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,77 +2009,77 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atlanta United FC</t>
+          <t>Forge FC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>York9 FC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>5.05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="O14" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="S14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>2</v>
       </c>
-      <c r="T14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.43</v>
-      </c>
       <c r="Y14" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AA14" t="n">
         <v>3.22</v>
@@ -2097,22 +2097,22 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Canada Canadian Premier League</t>
+          <t>USA MLS</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2124,104 +2124,104 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Forge FC</t>
+          <t>Atlanta United FC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>York9 FC</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AA15" t="n">
         <v>3.22</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H16" t="n">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.14</v>
+        <v>2.73</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
@@ -2273,10 +2273,10 @@
         <v>3.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="P16" t="n">
         <v>1.42</v>
@@ -2315,28 +2315,28 @@
         <v>2.81</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="17">
@@ -2358,85 +2358,85 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>4.89</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.1</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V17" t="n">
         <v>2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.3</v>
       </c>
       <c r="W17" t="n">
         <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.94</v>
+        <v>3.06</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE17" t="n">
         <v>1.24</v>
@@ -2473,85 +2473,85 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3.4</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AE18" t="n">
         <v>1.24</v>
@@ -2563,7 +2563,7 @@
         <v>1.9</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AI18" t="n">
         <v>3.3</v>
@@ -2588,28 +2588,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>New York RB</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.07</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>3.36</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
         <v>1.33</v>
@@ -2618,16 +2618,16 @@
         <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="O19" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="P19" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
         <v>1.8</v>
@@ -2636,52 +2636,52 @@
         <v>1.91</v>
       </c>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="U19" t="n">
         <v>1.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>2.17</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20">
@@ -2703,100 +2703,100 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>New York RB</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>2.72</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.3</v>
       </c>
-      <c r="M20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="V20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>1.85</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
       <c r="AE20" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AI20" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="21">
@@ -2818,100 +2818,100 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>4.41</v>
       </c>
       <c r="J21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="O21" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="P21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U21" t="n">
         <v>1.25</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>1.13</v>
+        <v>0.38</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.9</v>
+        <v>1.51</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.06</v>
+        <v>2.66</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="J22" t="n">
         <v>1.04</v>
@@ -2963,10 +2963,10 @@
         <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="O22" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -3005,13 +3005,13 @@
         <v>2.58</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AE22" t="n">
         <v>1.24</v>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="J23" t="n">
         <v>1.05</v>
@@ -3078,10 +3078,10 @@
         <v>3.3</v>
       </c>
       <c r="N23" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="P23" t="n">
         <v>1.42</v>
@@ -3142,6 +3142,811 @@
       </c>
       <c r="AI23" t="n">
         <v>2.62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>23</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K29" t="n">
+        <v>17</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
